--- a/input_test/MEP_test_for_mca.xlsx
+++ b/input_test/MEP_test_for_mca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psaa_\Desktop\GRASP-SysBioEng-patch-1\GRASP-SysBioEng-patch-1\input_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicow/Documents/GRASP/input_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F5CD3A-1ED1-4298-B9C5-D7F0012D0E5F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D85A624-F6C5-6446-A4EB-F5DB8101C559}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="8780" tabRatio="989" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="147">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>rejection</t>
+  </si>
+  <si>
+    <t>Isoenzymes</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -586,11 +589,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -639,6 +653,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,24 +1041,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.41796875"/>
-    <col min="2" max="2" width="29.47265625"/>
-    <col min="3" max="1025" width="8.578125"/>
+    <col min="1" max="1" width="69.5"/>
+    <col min="2" max="2" width="29.5"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1074,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1106,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1105,13 +1122,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,13 +1144,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1156,12 +1173,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>106</v>
       </c>
@@ -1178,7 +1195,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
@@ -1195,7 +1212,7 @@
         <v>0.16696109937825601</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
@@ -1212,7 +1229,7 @@
         <v>2.0295624220812498</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>97</v>
       </c>
@@ -1229,7 +1246,7 @@
         <v>5.2506020463205599E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1258,12 +1275,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>111</v>
       </c>
@@ -1277,7 +1294,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>42</v>
       </c>
@@ -1291,7 +1308,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
@@ -1305,7 +1322,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
@@ -1319,7 +1336,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
@@ -1333,7 +1350,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
@@ -1347,7 +1364,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
@@ -1361,7 +1378,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1375,7 +1392,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -1389,7 +1406,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
@@ -1403,7 +1420,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
@@ -1417,7 +1434,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1431,7 +1448,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1445,7 +1462,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1459,7 +1476,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1487,12 +1504,12 @@
       <selection activeCell="D24" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1024" width="8.578125"/>
+    <col min="1" max="1024" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>115</v>
       </c>
@@ -1506,7 +1523,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -1520,7 +1537,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1534,7 +1551,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1548,7 +1565,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1579,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1593,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
@@ -1590,7 +1607,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1604,7 +1621,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1635,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1663,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
@@ -1660,7 +1677,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -1674,7 +1691,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1705,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
@@ -1702,7 +1719,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -1716,7 +1733,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
@@ -1730,7 +1747,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
@@ -1744,7 +1761,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
@@ -1758,7 +1775,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>37</v>
       </c>
@@ -1772,7 +1789,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>38</v>
       </c>
@@ -1786,7 +1803,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
@@ -1800,7 +1817,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
@@ -1814,7 +1831,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
@@ -1842,15 +1859,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1015625"/>
-    <col min="2" max="2" width="32.83984375"/>
+    <col min="1" max="1" width="15.1640625"/>
+    <col min="2" max="2" width="32.83203125"/>
     <col min="3" max="3" width="12"/>
-    <col min="4" max="1025" width="8.578125"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -1885,7 +1902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
@@ -1902,7 +1919,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>43</v>
       </c>
@@ -1919,7 +1936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -1936,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -1950,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -1964,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>47</v>
       </c>
@@ -1984,7 +2001,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
@@ -2001,7 +2018,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>49</v>
       </c>
@@ -2018,7 +2035,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>50</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>51</v>
       </c>
@@ -2049,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2063,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2077,7 +2094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -2094,7 +2111,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -2125,13 +2142,13 @@
       <selection activeCell="B1" sqref="B1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.578125"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -2211,7 +2228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>42</v>
       </c>
@@ -2291,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
@@ -2371,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
@@ -2451,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
@@ -2531,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
@@ -2611,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
@@ -2691,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -2771,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -2851,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
@@ -2931,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
@@ -3011,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3091,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3171,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -3251,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -3345,12 +3362,12 @@
       <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1023" width="8.578125"/>
+    <col min="1" max="1023" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>56</v>
       </c>
@@ -3367,7 +3384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -3384,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -3401,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -3418,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -3435,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -3452,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -3469,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -3486,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -3503,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
@@ -3520,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -3537,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -3554,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -3571,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -3588,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -3605,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -3622,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
@@ -3639,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
@@ -3656,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3673,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3690,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3707,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -3724,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3741,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3758,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3775,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3800,16 +3817,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>56</v>
       </c>
@@ -3822,8 +3841,11 @@
       <c r="D1" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>42</v>
       </c>
@@ -3837,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
@@ -3851,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
@@ -3865,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
@@ -3879,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
@@ -3893,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
@@ -3907,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -3921,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -3935,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
@@ -3949,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
@@ -3963,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3977,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3991,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -4005,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -4031,82 +4053,82 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -4123,122 +4145,122 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>41</v>
       </c>
@@ -4255,137 +4277,137 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -4402,15 +4424,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.578125"/>
-    <col min="2" max="2" width="15.734375"/>
-    <col min="3" max="3" width="16.05078125"/>
-    <col min="4" max="1025" width="8.578125"/>
+    <col min="1" max="1" width="8.5"/>
+    <col min="2" max="2" width="15.6640625"/>
+    <col min="3" max="3" width="16"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>101</v>
       </c>
@@ -4421,7 +4443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>42</v>
       </c>
@@ -4432,7 +4454,7 @@
         <v>-31.817378113300499</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
@@ -4443,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
@@ -4454,7 +4476,7 @@
         <v>-24.554259354343301</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
@@ -4465,7 +4487,7 @@
         <v>6.3299632501736802</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
@@ -4476,7 +4498,7 @@
         <v>-17.5895614431385</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
@@ -4487,7 +4509,7 @@
         <v>1.11098730156556E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -4498,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -4509,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
@@ -4520,7 +4542,7 @@
         <v>19.5215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
@@ -4531,7 +4553,7 @@
         <v>-80.192778581043697</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4542,7 +4564,7 @@
         <v>-0.80383754398681695</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -4553,7 +4575,7 @@
         <v>-11.7822021194985</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -4564,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -4589,12 +4611,12 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -4605,7 +4627,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4616,7 +4638,7 @@
         <v>2.8050647744704302E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4627,7 +4649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4638,7 +4660,7 @@
         <v>1.5987048929337001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4649,7 +4671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4660,7 +4682,7 @@
         <v>1.13532036945575E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4671,7 +4693,7 @@
         <v>1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4682,7 +4704,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4693,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4704,7 +4726,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4715,7 +4737,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4726,7 +4748,7 @@
         <v>6.7181160404188E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4737,7 +4759,7 @@
         <v>3.49E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4748,7 +4770,7 @@
         <v>6.9399999999999996E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4759,7 +4781,7 @@
         <v>1.3875000000000001E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4770,7 +4792,7 @@
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4781,7 +4803,7 @@
         <v>5.5500000000000002E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4792,7 +4814,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -4803,7 +4825,7 @@
         <v>2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -4814,7 +4836,7 @@
         <v>5.0994390047020904E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -4825,7 +4847,7 @@
         <v>3.76182698457178E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -4836,7 +4858,7 @@
         <v>1.21547050601745E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -4847,7 +4869,7 @@
         <v>1.21547050601745E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -4858,7 +4880,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -4869,7 +4891,7 @@
         <v>7.1199999999999996E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>

--- a/input_test/MEP_test_for_mca.xlsx
+++ b/input_test/MEP_test_for_mca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,450 +32,453 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="148">
-  <si>
-    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP_copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rejection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMINCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of model structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fld_ox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fld_red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdmep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdpmep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mecpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hmbpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mecpp_ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxp_ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_dxp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_mecpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fpr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_drain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolite name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glyceraldehyde 3-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyruvate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon dioxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-deoxy-D-xylulose 5-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicotinamide adenine dinucleotide phosphate - reduced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicotinamide adenine dinucleotide phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flavodoxin oxidized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flavodoxin reduced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-C-methyl-D-erythritol 4-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDP-methyl-D-erythritol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-phospho-4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimethylallyl diphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isopentenyl diphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isoprene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-phospho-4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol external</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-deoxy-D-xylulose 5-phosphate external</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoenzymes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-deoxyxylulose-5-phosphate synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxp exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-deoxy-D-xylulose 5-phosphate reductoisomerase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-diphosphocytidyl-2C-methyl-D-erythritol synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-diphosphocytidyl-2-C-methylerythritol kinase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2C-methyl-D-erythritol 2,4-cyclodiphosphate synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mecpp exchange (enzymatic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flavodoxin-NAPD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate reductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isopentenyl-diphosphate D-isomerase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isoprene synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_isoprene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isoprene exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fpp drain for biosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">met</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enzyme/rxn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinetic mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promiscuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inhibitors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative effector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive effector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allosteric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subunits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomSequential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This enzyme is not allosteric in the MWC sense as it only has one active site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelled as mass action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxrInhibition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedBiBi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedUniBi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This enzyme could be allosteric and may have regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniUni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelled as a uniporter (facilitated diffusion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedIspG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelled as allosteric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme follows ordered mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispH_branching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diffusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelled as passive diffusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixedExchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed drain</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="149">
+  <si>
+    <t>General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t>MEP_copy</t>
+  </si>
+  <si>
+    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t>rejection</t>
+  </si>
+  <si>
+    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t>FMINCON</t>
+  </si>
+  <si>
+    <t>Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t>Number of model structures</t>
+  </si>
+  <si>
+    <t>Number of particles</t>
+  </si>
+  <si>
+    <t>Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t>Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t>Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t>rxn ID</t>
+  </si>
+  <si>
+    <t>g3p</t>
+  </si>
+  <si>
+    <t>h2o</t>
+  </si>
+  <si>
+    <t>pyr</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>dxp</t>
+  </si>
+  <si>
+    <t>nadph</t>
+  </si>
+  <si>
+    <t>nadp</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>fld_ox</t>
+  </si>
+  <si>
+    <t>fld_red</t>
+  </si>
+  <si>
+    <t>mep</t>
+  </si>
+  <si>
+    <t>ctp</t>
+  </si>
+  <si>
+    <t>cmp</t>
+  </si>
+  <si>
+    <t>cdmep</t>
+  </si>
+  <si>
+    <t>ppi</t>
+  </si>
+  <si>
+    <t>cdpmep</t>
+  </si>
+  <si>
+    <t>atp</t>
+  </si>
+  <si>
+    <t>adp</t>
+  </si>
+  <si>
+    <t>mecpp</t>
+  </si>
+  <si>
+    <t>hmbpp</t>
+  </si>
+  <si>
+    <t>dmpp</t>
+  </si>
+  <si>
+    <t>ipp</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>mecpp_ex</t>
+  </si>
+  <si>
+    <t>dxp_ex</t>
+  </si>
+  <si>
+    <t>dxs</t>
+  </si>
+  <si>
+    <t>EX_dxp</t>
+  </si>
+  <si>
+    <t>dxr</t>
+  </si>
+  <si>
+    <t>ispD</t>
+  </si>
+  <si>
+    <t>ispE</t>
+  </si>
+  <si>
+    <t>ispF</t>
+  </si>
+  <si>
+    <t>EX_mecpp</t>
+  </si>
+  <si>
+    <t>ispG</t>
+  </si>
+  <si>
+    <t>fpr</t>
+  </si>
+  <si>
+    <t>ispH</t>
+  </si>
+  <si>
+    <t>idi</t>
+  </si>
+  <si>
+    <t>ispS</t>
+  </si>
+  <si>
+    <t>EX_iso</t>
+  </si>
+  <si>
+    <t>biomass_drain</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Metabolite name</t>
+  </si>
+  <si>
+    <t>balanced?</t>
+  </si>
+  <si>
+    <t>active?</t>
+  </si>
+  <si>
+    <t>fixed?</t>
+  </si>
+  <si>
+    <t>measured?</t>
+  </si>
+  <si>
+    <t>glyceraldehyde 3-phosphate</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>pyruvate</t>
+  </si>
+  <si>
+    <t>carbon dioxide</t>
+  </si>
+  <si>
+    <t>1-deoxy-D-xylulose 5-phosphate</t>
+  </si>
+  <si>
+    <t>nicotinamide adenine dinucleotide phosphate - reduced</t>
+  </si>
+  <si>
+    <t>nicotinamide adenine dinucleotide phosphate</t>
+  </si>
+  <si>
+    <t>proton</t>
+  </si>
+  <si>
+    <t>flavodoxin oxidized</t>
+  </si>
+  <si>
+    <t>flavodoxin reduced</t>
+  </si>
+  <si>
+    <t>2-C-methyl-D-erythritol 4-phosphate</t>
+  </si>
+  <si>
+    <t>CDP-methyl-D-erythritol</t>
+  </si>
+  <si>
+    <t>diphosphate</t>
+  </si>
+  <si>
+    <t>4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol</t>
+  </si>
+  <si>
+    <t>2-phospho-4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol</t>
+  </si>
+  <si>
+    <t>1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate</t>
+  </si>
+  <si>
+    <t>dimethylallyl diphosphate</t>
+  </si>
+  <si>
+    <t>isopentenyl diphosphate</t>
+  </si>
+  <si>
+    <t>isoprene</t>
+  </si>
+  <si>
+    <t>2-phospho-4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol external</t>
+  </si>
+  <si>
+    <t>1-deoxy-D-xylulose 5-phosphate external</t>
+  </si>
+  <si>
+    <t>reaction name</t>
+  </si>
+  <si>
+    <t>transportRxn?</t>
+  </si>
+  <si>
+    <t>modelled?</t>
+  </si>
+  <si>
+    <t>Isoenzymes</t>
+  </si>
+  <si>
+    <t>1-deoxyxylulose-5-phosphate synthase</t>
+  </si>
+  <si>
+    <t>dxp exchange</t>
+  </si>
+  <si>
+    <t>1-deoxy-D-xylulose 5-phosphate reductoisomerase</t>
+  </si>
+  <si>
+    <t>4-diphosphocytidyl-2C-methyl-D-erythritol synthase</t>
+  </si>
+  <si>
+    <t>4-diphosphocytidyl-2-C-methylerythritol kinase</t>
+  </si>
+  <si>
+    <t>2C-methyl-D-erythritol 2,4-cyclodiphosphate synthase</t>
+  </si>
+  <si>
+    <t>mecpp exchange (enzymatic)</t>
+  </si>
+  <si>
+    <t>1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate synthase</t>
+  </si>
+  <si>
+    <t>flavodoxin-NAPD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t>1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate reductase</t>
+  </si>
+  <si>
+    <t>isopentenyl-diphosphate D-isomerase</t>
+  </si>
+  <si>
+    <t>isoprene synthase</t>
+  </si>
+  <si>
+    <t>EX_isoprene</t>
+  </si>
+  <si>
+    <t>isoprene exchange</t>
+  </si>
+  <si>
+    <t>fpp drain for biosynthesis</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>rxn</t>
+  </si>
+  <si>
+    <t>∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t>∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t>min (M)</t>
+  </si>
+  <si>
+    <t>max (M)</t>
+  </si>
+  <si>
+    <t>Fluxes (umol/gdcw/h)</t>
+  </si>
+  <si>
+    <t>MBo10_mean</t>
+  </si>
+  <si>
+    <t>MBo10_std</t>
+  </si>
+  <si>
+    <t>MBo10_mean2</t>
+  </si>
+  <si>
+    <t>MBo10_std2</t>
+  </si>
+  <si>
+    <t>enzyme/rxn</t>
+  </si>
+  <si>
+    <t>MBo10_LB2</t>
+  </si>
+  <si>
+    <t>MBo10_meas2</t>
+  </si>
+  <si>
+    <t>MBo10_UB2</t>
+  </si>
+  <si>
+    <t>mets</t>
+  </si>
+  <si>
+    <t>reaction ID</t>
+  </si>
+  <si>
+    <t>kinetic mechanism</t>
+  </si>
+  <si>
+    <t>Substrate Order</t>
+  </si>
+  <si>
+    <t>Product Order</t>
+  </si>
+  <si>
+    <t>promiscuous</t>
+  </si>
+  <si>
+    <t>inhibitors</t>
+  </si>
+  <si>
+    <t>activators</t>
+  </si>
+  <si>
+    <t>negative effector</t>
+  </si>
+  <si>
+    <t>positive effector</t>
+  </si>
+  <si>
+    <t>allosteric</t>
+  </si>
+  <si>
+    <t>subunits</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>randomSequential</t>
+  </si>
+  <si>
+    <t>This enzyme is not allosteric in the MWC sense as it only has one active site.</t>
+  </si>
+  <si>
+    <t>massAction</t>
+  </si>
+  <si>
+    <t>Modelled as mass action</t>
+  </si>
+  <si>
+    <t>dxrInhibition</t>
+  </si>
+  <si>
+    <t>orderedBiBi</t>
+  </si>
+  <si>
+    <t>orderedUniBi</t>
+  </si>
+  <si>
+    <t>This enzyme could be allosteric and may have regulation</t>
+  </si>
+  <si>
+    <t>UniUni</t>
+  </si>
+  <si>
+    <t>Modelled as a uniporter (facilitated diffusion)</t>
+  </si>
+  <si>
+    <t>orderedIspG</t>
+  </si>
+  <si>
+    <t>Modelled as allosteric</t>
+  </si>
+  <si>
+    <t>Enzyme follows ordered mechanism</t>
+  </si>
+  <si>
+    <t>ispH_branching</t>
+  </si>
+  <si>
+    <t>diffusion</t>
+  </si>
+  <si>
+    <t>Modelled as passive diffusion</t>
+  </si>
+  <si>
+    <t>fixedExchange</t>
+  </si>
+  <si>
+    <t>Fixed drain</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
@@ -627,7 +630,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -676,6 +679,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,7 +723,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -788,15 +795,15 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,7 +918,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -926,30 +933,30 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,7 +995,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.915002642603547</v>
@@ -1023,7 +1030,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1038,27 +1045,27 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,7 +1238,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1260,7 +1267,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1275,27 +1282,27 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,7 +1558,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1565,7 +1572,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -1579,7 +1586,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -1593,7 +1600,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -1607,7 +1614,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -1623,7 +1630,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1638,62 +1645,62 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>121</v>
       </c>
+      <c r="D1" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="E1" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1702,15 +1709,15 @@
         <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1719,15 +1726,15 @@
         <v>0</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>22</v>
@@ -1740,11 +1747,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1754,11 +1761,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1768,11 +1775,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>28</v>
@@ -1784,15 +1791,15 @@
         <v>3</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1801,15 +1808,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1818,15 +1825,15 @@
         <v>2</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1835,15 +1842,15 @@
         <v>1</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1857,7 +1864,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1871,7 +1878,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1882,10 +1889,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1894,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,7 +1909,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -1911,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1932,14 +1939,14 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,7 +3152,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3158,19 +3165,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.83"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
@@ -3185,6 +3192,9 @@
       </c>
       <c r="E1" s="11" t="s">
         <v>61</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,7 +3202,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3201,6 +3211,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3209,7 +3222,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3218,6 +3231,9 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,7 +3242,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3235,6 +3251,9 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3243,7 +3262,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3253,6 +3272,9 @@
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,7 +3282,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3269,6 +3291,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3277,7 +3302,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3286,6 +3311,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,7 +3322,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3304,6 +3332,9 @@
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,7 +3342,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3321,6 +3352,9 @@
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,7 +3362,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3338,6 +3372,9 @@
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,7 +3382,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3354,6 +3391,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3362,7 +3402,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3372,6 +3412,9 @@
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,6 +3433,9 @@
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -3407,13 +3453,16 @@
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3422,6 +3471,9 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3430,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3439,6 +3491,9 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3447,7 +3502,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -3456,6 +3511,9 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3475,6 +3533,9 @@
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3492,13 +3553,16 @@
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -3507,6 +3571,9 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3515,7 +3582,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -3524,6 +3591,9 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3532,7 +3602,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -3541,6 +3611,9 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3549,7 +3622,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -3559,6 +3632,9 @@
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,7 +3642,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -3575,6 +3651,9 @@
         <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,7 +3662,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -3593,6 +3672,9 @@
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,7 +3682,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -3610,12 +3692,15 @@
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3630,13 +3715,13 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,16 +3729,16 @@
         <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="12" t="s">
         <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,7 +3746,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3675,7 +3760,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3689,7 +3774,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3703,7 +3788,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3717,7 +3802,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3731,7 +3816,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3745,7 +3830,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3759,7 +3844,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3773,7 +3858,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3787,7 +3872,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3801,7 +3886,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3815,7 +3900,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3826,10 +3911,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -3843,7 +3928,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3855,7 +3940,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3870,13 +3955,13 @@
   </sheetPr>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,7 +4031,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,7 +4042,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3972,134 +4057,134 @@
   </sheetPr>
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>102</v>
+      <c r="A1" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4114,18 +4199,18 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,7 +4341,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4271,27 +4356,27 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,7 +4513,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-100</v>
@@ -4451,7 +4536,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4466,24 +4551,24 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4764,7 +4849,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
